--- a/doc/Conograma v1.xlsx
+++ b/doc/Conograma v1.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="parametros" sheetId="4" r:id="rId1"/>
-    <sheet name="Partes Interessadas" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafico" sheetId="3" r:id="rId3"/>
+    <sheet name="capa" sheetId="5" r:id="rId1"/>
+    <sheet name="parametros" sheetId="4" r:id="rId2"/>
+    <sheet name="Partes Interessadas" sheetId="2" r:id="rId3"/>
+    <sheet name="Grafico" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Cod.</t>
   </si>
@@ -176,13 +177,115 @@
   </si>
   <si>
     <t>55 62 98481-1198</t>
+  </si>
+  <si>
+    <t>Registro das partes interessadas</t>
+  </si>
+  <si>
+    <t>Nome do Projeto</t>
+  </si>
+  <si>
+    <t>Instruções</t>
+  </si>
+  <si>
+    <t>Instruções, Histórico de Alterações e as Aprovações</t>
+  </si>
+  <si>
+    <t>Dados de contato e informações das partes interessadas</t>
+  </si>
+  <si>
+    <t>Paramêtros</t>
+  </si>
+  <si>
+    <t>Parâmetros usados na planilha.</t>
+  </si>
+  <si>
+    <t>Objetivo:</t>
+  </si>
+  <si>
+    <t>Identificar as partes interessadas</t>
+  </si>
+  <si>
+    <t>Ref.</t>
+  </si>
+  <si>
+    <t>Passos</t>
+  </si>
+  <si>
+    <t>Aba</t>
+  </si>
+  <si>
+    <t>Incluir as partes interessadas identificados na coluna Parte interessada</t>
+  </si>
+  <si>
+    <t>Partes Interessadas</t>
+  </si>
+  <si>
+    <t>Incluir as demais informações sobre as partes interessadas. Caso tenha alguma dúvida sobre a coluna, consulte a Aba Param</t>
+  </si>
+  <si>
+    <t>Controle de Versões</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Notas da Revisão</t>
+  </si>
+  <si>
+    <t>Aprovações</t>
+  </si>
+  <si>
+    <t>Participante</t>
+  </si>
+  <si>
+    <t>Assinatura</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>lucas araujo da siolva</t>
+  </si>
+  <si>
+    <t>Lucas Araujo Da Silva</t>
+  </si>
+  <si>
+    <t>Marcos Paulo Paixão</t>
+  </si>
+  <si>
+    <t>Calebe Cabral da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alta </t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grande </t>
+  </si>
+  <si>
+    <t>lucas araujo , marcos paulo, calebe cabral , vinicius lopez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +301,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +398,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -327,17 +495,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,12 +523,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEEECE1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,7 +639,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,12 +647,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,7 +662,129 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -703,16 +1066,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="49">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="49">
+        <v>2</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="69">
+        <v>44138</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="69">
+        <v>44139</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="64"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="69">
+        <v>44140</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="50">
+        <v>1</v>
+      </c>
+      <c r="C29" s="69">
+        <v>44138</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="50">
+        <v>2</v>
+      </c>
+      <c r="C30" s="69">
+        <v>44138</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="50">
+        <v>3</v>
+      </c>
+      <c r="C31" s="69">
+        <v>44138</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="64"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="50">
+        <v>4</v>
+      </c>
+      <c r="C32" s="69">
+        <v>44138</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="gid=1418533383" display="gid=1418533383"/>
+    <hyperlink ref="D5" location="gid=287743119" display="gid=287743119"/>
+    <hyperlink ref="D6" location="gid=858106942" display="gid=858106942"/>
+    <hyperlink ref="G12" location="gid=null" display="gid=null"/>
+    <hyperlink ref="G13" location="gid=null" display="gid=null"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -748,47 +1602,95 @@
       <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -851,11 +1753,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1795,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL33"/>
   <sheetViews>
